--- a/VS/With TRG 2.2/EURGBP.xlsx
+++ b/VS/With TRG 2.2/EURGBP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Techincal Analysis Program\MT5\VS\With TRG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Techincal Analysis Program\MT5\VS\With TRG 2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E1B5FB-2E5A-4B09-B774-201C0E1E89D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA56578-184A-4F9C-BFDF-66636B07E547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +92,20 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,12 +143,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="I111" sqref="I111"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4301,42 +4320,43 @@
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
+      <c r="A95" s="3">
         <v>93</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="4">
         <v>45156.645833333343</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="5">
         <v>0.85433000000000003</v>
       </c>
-      <c r="D95">
-        <v>2</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="D95" s="5">
+        <v>2</v>
+      </c>
+      <c r="E95" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="5">
         <v>0.85516000000000003</v>
       </c>
-      <c r="G95" s="2">
+      <c r="G95" s="4">
         <v>45156.666666666657</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="5">
         <v>-8.2999999999999741E-4</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="5">
         <v>-202.54655999999929</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="5">
         <v>0.85514860000000004</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="5">
         <v>0.85269280000000003</v>
       </c>
-      <c r="L95">
+      <c r="L95" s="5">
         <v>0.85351140000000003</v>
       </c>
+      <c r="M95" s="5"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
